--- a/informacoes_hospedagens.xlsx
+++ b/informacoes_hospedagens.xlsx
@@ -456,11 +456,7 @@
           <t xml:space="preserve">Loft em São Paulo </t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/29343801?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=f19504c6-0cd5-4d57-8c91-6107151eeaf6</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>R$110</t>
@@ -470,150 +466,114 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Apartamento em Jardim Paulista</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/33251685?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=f19504c6-0cd5-4d57-8c91-6107151eeaf6</t>
-        </is>
-      </c>
+          <t>Apartamento em Consolação</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R$223</t>
+          <t>R$199</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/29394639?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=f19504c6-0cd5-4d57-8c91-6107151eeaf6</t>
-        </is>
-      </c>
+          <t>Apartamento em Centro Histórico de São Paulo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R$216</t>
+          <t>R$171</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Apartamento em Consolação</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/21876764?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=f19504c6-0cd5-4d57-8c91-6107151eeaf6</t>
-        </is>
-      </c>
+          <t>Apartamento em Bela Vista</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>R$199</t>
+          <t>R$189</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Quarto inteiro em Bela Vista</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/30108042?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=f19504c6-0cd5-4d57-8c91-6107151eeaf6</t>
-        </is>
-      </c>
+          <t>Loft em Campos Elíseos</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>R$74</t>
+          <t>R$130</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/36594447?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=f19504c6-0cd5-4d57-8c91-6107151eeaf6</t>
-        </is>
-      </c>
+          <t>Apartamento em Centro Histórico de São Paulo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>R$217</t>
+          <t>R$128</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Apartamento em Santana</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/29159276?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=f19504c6-0cd5-4d57-8c91-6107151eeaf6</t>
-        </is>
-      </c>
+          <t>Apartamento em Santa Ifigênia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>R$140</t>
+          <t>R$143</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Loft em São Paulo</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/17406279?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=f19504c6-0cd5-4d57-8c91-6107151eeaf6</t>
-        </is>
-      </c>
+          <t>Apartamento em Santana</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>R$158</t>
+          <t>R$140</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Condomínio em Centro Histórico de São Paulo</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/607352922911493639?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=f19504c6-0cd5-4d57-8c91-6107151eeaf6</t>
-        </is>
-      </c>
+          <t>Condomínio em Sé</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>R$118</t>
+          <t>R$141</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Apartamento em Santa Ifigênia</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/636207321905147212?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=f19504c6-0cd5-4d57-8c91-6107151eeaf6</t>
-        </is>
-      </c>
+          <t>Casa em São Paulo</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>R$143</t>
@@ -623,201 +583,153 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Apartamento em Itaim Bibi</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/53148739?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=f19504c6-0cd5-4d57-8c91-6107151eeaf6</t>
-        </is>
-      </c>
+          <t>Apartamento em Jardim America</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>R$360</t>
+          <t>R$233</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Loft em Campos Elíseos</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/54063975?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=f19504c6-0cd5-4d57-8c91-6107151eeaf6</t>
-        </is>
-      </c>
+          <t>Apartamento em São Paulo</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>R$127</t>
+          <t>R$161</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Condomínio em Sé</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/45362433?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=f19504c6-0cd5-4d57-8c91-6107151eeaf6</t>
-        </is>
-      </c>
+          <t>Loft em Bela Vista</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>R$131</t>
+          <t>R$130</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Apartamento em Sumarezinho</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/31493497?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=f19504c6-0cd5-4d57-8c91-6107151eeaf6</t>
-        </is>
-      </c>
+          <t>Apartamento em Vila Olímpia</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>R$477</t>
+          <t>R$224</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/5391313?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=f19504c6-0cd5-4d57-8c91-6107151eeaf6</t>
-        </is>
-      </c>
+          <t>Apartamento em Vila Olímpia</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>R$119</t>
+          <t>R$224</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Apartamento em Bela Vista</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/53374205?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=f19504c6-0cd5-4d57-8c91-6107151eeaf6</t>
-        </is>
-      </c>
+          <t>Apartamento em Vila Olímpia</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>R$189</t>
+          <t>R$212</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Loft em Bela Vista</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/42804708?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=f19504c6-0cd5-4d57-8c91-6107151eeaf6</t>
-        </is>
-      </c>
+          <t>Apartamento em Campo Belo</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>R$129</t>
+          <t>R$101</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Loft em Consolação</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/49620382?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=f19504c6-0cd5-4d57-8c91-6107151eeaf6</t>
-        </is>
-      </c>
+          <t>Apartamento em Jardim Paulista</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>R$142</t>
+          <t>R$205</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Apartamento em Jardim America</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/592725537426468409?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=f19504c6-0cd5-4d57-8c91-6107151eeaf6</t>
-        </is>
-      </c>
+          <t>Apartamento em Campos Elíseos</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>R$233</t>
+          <t>R$118</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Condomínio em São Paulo</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/665869984534041365?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=f19504c6-0cd5-4d57-8c91-6107151eeaf6</t>
-        </is>
-      </c>
+          <t>Apartamento em Centro Histórico de São Paulo</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>R$136</t>
+          <t>R$242</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/11737858?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=b169a822-4c18-4794-8b6d-c65167b8c3b0</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Loft em São Paulo </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>R$161</t>
+          <t>R$110</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/22578141?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=b169a822-4c18-4794-8b6d-c65167b8c3b0</t>
-        </is>
-      </c>
+          <t>Apartamento em Consolação</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>R$199</t>
@@ -827,578 +739,442 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Apartamento em Campos Elíseos</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/629634173200133621?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=b169a822-4c18-4794-8b6d-c65167b8c3b0</t>
-        </is>
-      </c>
+          <t>Apartamento em Centro Histórico de São Paulo</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>R$118</t>
+          <t>R$171</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/17667161?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=b169a822-4c18-4794-8b6d-c65167b8c3b0</t>
-        </is>
-      </c>
+          <t>Apartamento em Bela Vista</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>R$303</t>
+          <t>R$189</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Apartamento em Santo Amaro</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/23698892?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=b169a822-4c18-4794-8b6d-c65167b8c3b0</t>
-        </is>
-      </c>
+          <t>Loft em Campos Elíseos</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>R$165</t>
+          <t>R$130</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Apartamento em Santa Cecilia</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/608547552393566864?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=b169a822-4c18-4794-8b6d-c65167b8c3b0</t>
-        </is>
-      </c>
+          <t>Apartamento em Centro Histórico de São Paulo</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>R$132</t>
+          <t>R$128</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/22144401?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=b169a822-4c18-4794-8b6d-c65167b8c3b0</t>
-        </is>
-      </c>
+          <t>Apartamento em Santa Ifigênia</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>R$141</t>
+          <t>R$143</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Casa em São Paulo</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/660125110145938194?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=b169a822-4c18-4794-8b6d-c65167b8c3b0</t>
-        </is>
-      </c>
+          <t>Apartamento em Santana</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>R$143</t>
+          <t>R$140</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Loft em Vila Mariana</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/635531854349810415?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=b169a822-4c18-4794-8b6d-c65167b8c3b0</t>
-        </is>
-      </c>
+          <t>Condomínio em Sé</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>R$197</t>
+          <t>R$141</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Apartamento em Vila Olímpia</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/44571794?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=b169a822-4c18-4794-8b6d-c65167b8c3b0</t>
-        </is>
-      </c>
+          <t>Casa em São Paulo</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>R$220</t>
+          <t>R$143</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Apartamento em Centro Histórico de São Paulo</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/557772360417083116?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=b169a822-4c18-4794-8b6d-c65167b8c3b0</t>
-        </is>
-      </c>
+          <t>Apartamento em Jardim America</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>R$242</t>
+          <t>R$233</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quarto inteiro em São Paulo </t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/30691685?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=b169a822-4c18-4794-8b6d-c65167b8c3b0</t>
-        </is>
-      </c>
+          <t>Apartamento em São Paulo</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>R$64</t>
+          <t>R$161</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Condomínio em Sé</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/50067058?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=b169a822-4c18-4794-8b6d-c65167b8c3b0</t>
-        </is>
-      </c>
+          <t>Loft em Bela Vista</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>R$162</t>
+          <t>R$130</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Apartamento em Campo Belo</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/602895024051221577?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=b169a822-4c18-4794-8b6d-c65167b8c3b0</t>
-        </is>
-      </c>
+          <t>Apartamento em Vila Olímpia</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>R$101</t>
+          <t>R$224</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Loft em Liberdade</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/50547668?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=b169a822-4c18-4794-8b6d-c65167b8c3b0</t>
-        </is>
-      </c>
+          <t>Apartamento em Vila Olímpia</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>R$207</t>
+          <t>R$224</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/663855635089619653?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=b169a822-4c18-4794-8b6d-c65167b8c3b0</t>
-        </is>
-      </c>
+          <t>Apartamento em Vila Olímpia</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>R$114</t>
+          <t>R$212</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Apartamento em Vila Olímpia</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/589135839997056457?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=b169a822-4c18-4794-8b6d-c65167b8c3b0</t>
-        </is>
-      </c>
+          <t>Apartamento em Campo Belo</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>R$240</t>
+          <t>R$101</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Apartamento em Centro</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/645823026256357630?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=b169a822-4c18-4794-8b6d-c65167b8c3b0</t>
-        </is>
-      </c>
+          <t>Apartamento em Jardim Paulista</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>R$146</t>
+          <t>R$205</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/663910939882017440?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=b169a822-4c18-4794-8b6d-c65167b8c3b0</t>
-        </is>
-      </c>
+          <t>Apartamento em Campos Elíseos</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>R$192</t>
+          <t>R$118</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Apartamento em Bela Vista</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/31833596?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=b169a822-4c18-4794-8b6d-c65167b8c3b0</t>
-        </is>
-      </c>
+          <t>Apartamento em Centro Histórico de São Paulo</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>R$93</t>
+          <t>R$242</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Loft em São Paulo</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/23103831?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=d487fe1a-9389-41c6-ba8f-eef9999e022c</t>
-        </is>
-      </c>
+          <t>Apartamento em Consolação</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>R$144</t>
+          <t>R$223</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Quarto inteiro em Vila Olímpia</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/43430082?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=d487fe1a-9389-41c6-ba8f-eef9999e022c</t>
-        </is>
-      </c>
+          <t>Apartamento em São Paulo</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>R$130</t>
+          <t>R$199</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Condomínio em Sé</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/50747022?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=d487fe1a-9389-41c6-ba8f-eef9999e022c</t>
-        </is>
-      </c>
+          <t>Apartamento em São Paulo</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>R$140</t>
+          <t>R$306</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/659310692403127334?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=d487fe1a-9389-41c6-ba8f-eef9999e022c</t>
-        </is>
-      </c>
+          <t>Loft em Vila Mariana</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>R$213</t>
+          <t>R$197</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Condomínio em Sumarezinho</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/49570717?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=d487fe1a-9389-41c6-ba8f-eef9999e022c</t>
-        </is>
-      </c>
+          <t>Apartamento em Vila Olímpia</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>R$222</t>
+          <t>R$243</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Quarto inteiro em Bela Vista</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/580628941005954226?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=d487fe1a-9389-41c6-ba8f-eef9999e022c</t>
-        </is>
-      </c>
+          <t>Apartamento em Consolação</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>R$67</t>
+          <t>R$223</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/26472840?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=d487fe1a-9389-41c6-ba8f-eef9999e022c</t>
-        </is>
-      </c>
+          <t>Quarto inteiro em Vila Olímpia</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>R$134</t>
+          <t>R$130</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Condomínio em Centro Histórico de São Paulo</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/45358861?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=d487fe1a-9389-41c6-ba8f-eef9999e022c</t>
-        </is>
-      </c>
+          <t>Loft em Liberdade</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>R$151</t>
+          <t>R$210</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Apartamento em Bela Vista</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/45271070?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=d487fe1a-9389-41c6-ba8f-eef9999e022c</t>
-        </is>
-      </c>
+          <t>Condomínio em Sé</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>R$160</t>
+          <t>R$165</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/10098654?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=d487fe1a-9389-41c6-ba8f-eef9999e022c</t>
-        </is>
-      </c>
+          <t>Condomínio em Centro Histórico de São Paulo</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>R$121</t>
+          <t>R$146</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Quarto inteiro em Brooklin</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/50343850?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=d487fe1a-9389-41c6-ba8f-eef9999e022c</t>
-        </is>
-      </c>
+          <t>Loft em Consolação</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>R$91</t>
+          <t>R$142</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Apartamento em República</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/600791233206588063?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=d487fe1a-9389-41c6-ba8f-eef9999e022c</t>
-        </is>
-      </c>
+          <t>Loft em Centro Histórico de São Paulo</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>R$130</t>
+          <t>R$177</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Quarto inteiro em São Paulo</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/24827626?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=d487fe1a-9389-41c6-ba8f-eef9999e022c</t>
-        </is>
-      </c>
+          <t>Loft em Santana</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>R$96</t>
+          <t>R$140</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Loft em República</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/47053714?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=d487fe1a-9389-41c6-ba8f-eef9999e022c</t>
-        </is>
-      </c>
+          <t>Apartamento em Santo Amaro</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>R$222</t>
+          <t>R$165</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Loft em Consolação</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/665852943790449796?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=d487fe1a-9389-41c6-ba8f-eef9999e022c</t>
-        </is>
-      </c>
+          <t>Loft em São Paulo</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>R$205</t>
+          <t>R$144</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Condomínio em Centro Histórico de São Paulo</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/51174570?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=d487fe1a-9389-41c6-ba8f-eef9999e022c</t>
-        </is>
-      </c>
+          <t>Apartamento em São Paulo</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>R$176</t>
+          <t>R$217</t>
         </is>
       </c>
     </row>
@@ -1408,31 +1184,23 @@
           <t>Apartamento em Consolação</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/53589685?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=d487fe1a-9389-41c6-ba8f-eef9999e022c</t>
-        </is>
-      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>R$223</t>
+          <t>R$197</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Apartamento em São Paulo</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/39782758?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=d487fe1a-9389-41c6-ba8f-eef9999e022c</t>
-        </is>
-      </c>
+          <t>Loft em República</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>R$149</t>
+          <t>R$141</t>
         </is>
       </c>
     </row>
@@ -1442,31 +1210,23 @@
           <t>Apartamento em Bela Vista</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/603503057481535786?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=d487fe1a-9389-41c6-ba8f-eef9999e022c</t>
-        </is>
-      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>R$111</t>
+          <t>R$162</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Apartamento em República</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/41294433?check_in=2022-07-22&amp;check_out=2022-07-25&amp;previous_page_section_name=1000&amp;federated_search_id=d487fe1a-9389-41c6-ba8f-eef9999e022c</t>
-        </is>
-      </c>
+          <t>Apartamento em Centro</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>R$145</t>
+          <t>R$136</t>
         </is>
       </c>
     </row>
